--- a/src/test/resources/increaseNumber/increaseNumber.xlsx
+++ b/src/test/resources/increaseNumber/increaseNumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\increaseNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702456B-408C-4A61-BD05-452B16B4FC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C84922-EB93-4D89-ABDF-202C53D54F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,13 +748,17 @@
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -772,15 +776,11 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="2"/>
     </row>
   </sheetData>

--- a/src/test/resources/increaseNumber/increaseNumber.xlsx
+++ b/src/test/resources/increaseNumber/increaseNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\increaseNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C84922-EB93-4D89-ABDF-202C53D54F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B22537-3912-408D-85BD-BE75716D1C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>setProperty</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>${index}_${age}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${age+1}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -101,7 +105,27 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>"step"</t>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF871094"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -122,106 +146,6 @@
         <charset val="136"/>
       </rPr>
       <t>"2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"padSize"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"padStr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -278,8 +202,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="FF871094"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -672,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -684,16 +608,15 @@
     <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -716,22 +639,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -751,17 +677,20 @@
       <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -774,14 +703,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/resources/increaseNumber/increaseNumber.xlsx
+++ b/src/test/resources/increaseNumber/increaseNumber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\increaseNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B22537-3912-408D-85BD-BE75716D1C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B376CC4-9B5D-432E-B047-152866614436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -99,61 +99,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
-      <t>"</t>
+      <t>"value"</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t>"2"</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
@@ -180,35 +160,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
+      <sz val="10"/>
+      <color rgb="FF871094"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF871094"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,18 +197,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,10 +214,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -257,30 +351,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,120 +701,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
